--- a/semester A/Data Analysis/Assignments/Koutsompinas_Assignment_6.xlsx
+++ b/semester A/Data Analysis/Assignments/Koutsompinas_Assignment_6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\OneDrive\Υπολογιστής\MSC\semester A\Data Analysis\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182A741D-383C-49D2-B2C1-163695EA2F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA2DC0A-A52A-46FC-95E3-660E82295C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calc Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="60">
   <si>
     <t>Calc HS</t>
   </si>
@@ -196,13 +196,34 @@
   <si>
     <t>Concentration</t>
   </si>
+  <si>
+    <t xml:space="preserve">superstore </t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>market share</t>
+  </si>
+  <si>
+    <t>advertising</t>
+  </si>
+  <si>
+    <t>capital intensity</t>
+  </si>
+  <si>
+    <t>profit margin=</t>
+  </si>
+  <si>
+    <t>confidence interval</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -409,23 +430,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,7 +481,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5982,354 +6007,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Normal Probability Plot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Store Data'!$O$31:$O$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.3333333333333339</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.666666666666668</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31.666666666666668</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>38.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>48.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>58.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>61.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>68.333333333333343</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>71.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>75.000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>78.333333333333343</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>81.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85.000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>88.333333333333343</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>91.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>95.000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>98.333333333333343</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>98.333333333333343</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Store Data'!$P$31:$P$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-107E-4E2A-BC91-8CA6D70D099E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="121612639"/>
-        <c:axId val="121611199"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="121612639"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Sample Percentile</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121611199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="121611199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Profit Margin</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121612639"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Market Share  Residual Plot</a:t>
             </a:r>
           </a:p>
@@ -6653,7 +6330,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7001,7 +6678,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7326,6 +7003,354 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="789065823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Advertising Intensity  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Store Data'!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Store Data'!$L$30:$L$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-0.13531487680732823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0398882181956548</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.77250263757253279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1785360461962853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.4053291744751135E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.275351192169353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0664660442810678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8880573010235402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8245823337029101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.5654833971386495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.4602862376322641</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.6551216031261777</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.8815414996667741</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.62676176271756034</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.0916916389216578</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6148467818665324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0901226551896706</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6808429321151692</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.2171996710903521</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16829184432517863</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1911017134845103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7061916589054178</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.5396288937418916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.34666650434535917</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15211350740414886</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1406730123523232E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61056178153227769</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.10229569407654537</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4202622518971388</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.17873117467076938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1656-4C8C-9BC8-8B7719905C3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="789061023"/>
+        <c:axId val="789061503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="789061023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Advertising Intensity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="789061503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="789061503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="789061023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8022,354 +8047,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Advertising Intensity  Residual Plot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Store Data'!$E$2:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Store Data'!$L$30:$L$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>-0.13531487680732823</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0398882181956548</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.77250263757253279</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.1785360461962853</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.4053291744751135E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.275351192169353</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0664660442810678</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.8880573010235402</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8245823337029101</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.5654833971386495</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.4602862376322641</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.6551216031261777</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.8815414996667741</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.62676176271756034</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1.0916916389216578</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.6148467818665324</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.0901226551896706</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.6808429321151692</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.2171996710903521</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.16829184432517863</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.1911017134845103</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.7061916589054178</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-4.5396288937418916</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.34666650434535917</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.15211350740414886</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.1406730123523232E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.61056178153227769</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.10229569407654537</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.4202622518971388</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.17873117467076938</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1656-4C8C-9BC8-8B7719905C3D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="789061023"/>
-        <c:axId val="789061503"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="789061023"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Advertising Intensity</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="789061503"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="789061503"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Residuals</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="789061023"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Growth  Residual Plot</a:t>
             </a:r>
           </a:p>
@@ -8693,7 +8370,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9041,7 +8718,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9612,7 +9289,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10183,7 +9860,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10754,7 +10431,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11325,7 +11002,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11896,7 +11573,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12467,7 +12144,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -20486,8 +20163,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>162128</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>113488</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>46790</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20502,8 +20179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5528553" y="13229616"/>
-          <a:ext cx="6955277" cy="2691319"/>
+          <a:off x="5465977" y="13365434"/>
+          <a:ext cx="6861414" cy="851882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20537,6 +20214,20 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" kern="1200"/>
+            <a:t>REPORT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>The results indicate that the most important</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> factors that determine the success of the students in the prograp are Alg Place and Calc HS. The rest factors are quite irrelevant with the students success on the university. So the acceptance of students should be more focused on the significant values , and also highschool should put more focus on those subjects.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </xdr:txBody>
@@ -20652,7 +20343,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
-            <a:t> , since the r squeare is 0.32</a:t>
+            <a:t> , since the r squeare is 0.32 (32% of the varience is explained)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -20764,7 +20455,19 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
-            <a:t> are normally distributed arround 0</a:t>
+            <a:t> are normally distributed arround 0. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>There is a slight "problem" with the varience in low values.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>We see errors that are slightly larger at low scores.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -20859,42 +20562,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>556261</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>556261</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534F7E72-FB36-87D1-881B-6B6175E53CF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
       <xdr:colOff>378390</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>90606</xdr:rowOff>
@@ -20922,7 +20589,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20958,7 +20625,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20994,7 +20661,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21030,7 +20697,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21066,7 +20733,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21102,7 +20769,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21138,7 +20805,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21174,7 +20841,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21210,7 +20877,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21246,7 +20913,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21282,7 +20949,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21318,7 +20985,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21354,10 +21021,241 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>587566</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>146891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>100988</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC0BFD0-8644-240A-3684-5463DC8CBC0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13891911" y="10674753"/>
+          <a:ext cx="9515767" cy="2909868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>1) The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> regression equation is : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>profit Margin = 6.155+0.189 * market Share -015 * concentration + 0.33 * capital Intensity + 0.61* advertising -2.46 * superstore</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>2) the significant coefficients are Growth,  market sheres and Concentration. The other coefficients are not so significant(based on p-value)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>3) Growth</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> and market shares possitively influence the profit margin , but concentration has a negative impact.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>4) coefficient is 0.778 , which means the regression explains 77% of the data variance </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>5)The residuals graphs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> and the normal probability plot shows that there is not vary much variability on the data , most data have repeated values on coefficients and as a profit margin. Also the last peak in the normal prob. plot shows that we may have some outliers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>6) The estimate is : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>13.92468</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>7) the confidence</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> interval of the estimate is : (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12.42169,15.42767)12.42169</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>15.42767</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>8)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> we trust the above estimate in 95% confidence , since the regression is significant.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>9) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" kern="1200" baseline="0"/>
+            <a:t>REPORT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>We</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> can derive that the most significatn factors to profit margin are growth , market share and concentration, which all positively impact profit margin.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>Other factors are less significant but still positively impact the profit margin, apart from superstore which has a negative impact.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>10) correlation shows that the regression explains 77% of the variance (which means the regression is quite significant) .</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>The advertising and capital intensity are strongly correlated , which indicates that maybe one of those could get excluded from the regression</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>same applies to growth and advertising, concentration and market share , superstore and concentratiom.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21680,26 +21578,26 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -21725,18 +21623,12 @@
       <c r="G2" s="2">
         <v>62</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
@@ -21760,20 +21652,15 @@
       <c r="G3" s="2">
         <v>75</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3">
         <v>0.16102910342189561</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
@@ -21797,22 +21684,18 @@
       <c r="G4" s="2">
         <v>95</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4">
         <v>0.1017370727947232</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4">
         <v>0.42735495945101609</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
@@ -21836,24 +21719,21 @@
       <c r="G5" s="2">
         <v>78</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5">
         <v>-9.1310389356063573E-2</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5">
         <v>-1.925475374312173E-2</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>0.31210816912323947</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
@@ -21877,26 +21757,24 @@
       <c r="G6" s="2">
         <v>95</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6">
         <v>6.3193247511890774E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6">
         <v>0.44271791122640525</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6">
         <v>0.30282916958330691</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6">
         <v>0.43659106518075447</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
@@ -21920,28 +21798,27 @@
       <c r="G7" s="2">
         <v>91</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7">
         <v>1.4474523737201601E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7">
         <v>0.12625272724244527</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7">
         <v>-0.10321556959254646</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7">
         <v>-0.44578189344580221</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7">
         <v>-0.31898594744117803</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1">
       <c r="A8" s="2">
@@ -21965,28 +21842,28 @@
       <c r="G8" s="2">
         <v>72</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>0.31751773024056062</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>0.35279420840623132</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>0.49098703808664856</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>0.2587471326843338</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>0.32399864042357979</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <v>-2.0847083700312848E-2</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>1</v>
       </c>
     </row>
@@ -23678,7 +23555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E78DBEB-B149-40F2-BEA2-3FDE83E668B5}">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="102" workbookViewId="0">
+    <sheetView topLeftCell="J73" zoomScale="98" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:B109"/>
     </sheetView>
   </sheetViews>
@@ -23691,48 +23568,48 @@
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>0.60964705723423196</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>0.37166953439435885</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>0.32002593448156641</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>9.4303764772759191</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>80</v>
       </c>
     </row>
@@ -23742,301 +23619,299 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>3840.163963269395</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>640.02732721156588</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>7.1968169341791786</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>4.6957844635394737E-6</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>73</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>6492.0360367306057</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>88.932000503158989</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>79</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>10332.200000000001</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1"/>
     <row r="16" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>27.943424902289689</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>12.437826350092234</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>2.2466485795632991</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <v>2.7686971228797371E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>3.1548727342387402</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17">
         <v>52.731977070340633</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17">
         <v>3.1548727342387402</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17">
         <v>52.731977070340633</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>7.1923021562595508</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>2.4882078348436094</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>2.8905552243434705</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18">
         <v>5.0617078473807597E-3</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>2.2333110927996138</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18">
         <v>12.151293219719488</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18">
         <v>2.2333110927996138</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18">
         <v>12.151293219719488</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>0.35150937662328946</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>0.4303557606183438</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>0.81678789687451547</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19">
         <v>0.41670725329611757</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19">
         <v>-0.50618841739921283</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19">
         <v>1.2092071706457919</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19">
         <v>-0.50618841739921283</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19">
         <v>1.2092071706457919</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>0.82704455218267126</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>0.26752123760652963</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>3.0915098912598813</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20">
         <v>2.8193115755531964E-3</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <v>0.29387549451836026</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20">
         <v>1.3602136098469821</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20">
         <v>0.29387549451836026</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20">
         <v>1.3602136098469821</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>3.6830488712844449</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>2.4408613227970832</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>1.5089136104888941</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21">
         <v>0.13563702156596716</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21">
         <v>-1.181580729745856</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21">
         <v>8.5476784723147468</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21">
         <v>-1.181580729745856</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21">
         <v>8.5476784723147468</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>0.11058946972438255</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>0.11600017898262145</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <v>0.95335602663984242</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22">
         <v>0.34355590868014751</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <v>-0.12059855359069097</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22">
         <v>0.34177749303945604</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22">
         <v>-0.12059855359069097</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22">
         <v>0.34177749303945604</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>2.6271133717001325</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>2.4691501621964855</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>1.0639747277918195</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>0.29084698249757857</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>-2.2938958049479368</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>7.5481225483482017</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>-2.2938958049479368</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>7.5481225483482017</v>
       </c>
     </row>
@@ -24050,1622 +23925,1622 @@
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1"/>
     <row r="29" spans="1:9">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="4">
+      <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>75.212868657708157</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30">
         <v>-13.212868657708157</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30">
         <v>-1.4575390618267623</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30">
         <v>0.625</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="4">
+      <c r="A31">
         <v>2</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>77.050462647139483</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31">
         <v>-2.0504626471394829</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31">
         <v>-0.22619080537661951</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31">
         <v>1.875</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="4">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>92.07306539509409</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32">
         <v>2.9269346049059095</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32">
         <v>0.32287625258229324</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32">
         <v>3.125</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4">
+      <c r="A33">
         <v>4</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>84.200169772796201</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33">
         <v>-6.2001697727962011</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33">
         <v>-0.68395364155353222</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33">
         <v>4.375</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4">
+      <c r="A34">
         <v>5</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>82.012729960235504</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34">
         <v>12.987270039764496</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34">
         <v>1.4326528083972174</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34">
         <v>5.625</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4">
+      <c r="A35">
         <v>6</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>86.854228897121573</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35">
         <v>4.1457711028784274</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35">
         <v>0.45732864530616252</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35">
         <v>6.875</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="4">
+      <c r="A36">
         <v>7</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>83.255098489630655</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36">
         <v>-11.255098489630655</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36">
         <v>-1.2415733568783969</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36">
         <v>8.125</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36">
         <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="4">
+      <c r="A37">
         <v>8</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>75.429550839435976</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37">
         <v>19.570449160564024</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37">
         <v>2.1588570088733934</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37">
         <v>9.375</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="4">
+      <c r="A38">
         <v>9</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>76.123724961709613</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38">
         <v>11.876275038290387</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38">
         <v>1.3100966357678836</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38">
         <v>10.625</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="4">
+      <c r="A39">
         <v>10</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>80.981707443319692</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39">
         <v>16.018292556680308</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39">
         <v>1.7670112153510305</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39">
         <v>11.875</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="4">
+      <c r="A40">
         <v>11</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>69.289700977292441</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40">
         <v>-20.289700977292441</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40">
         <v>-2.2381991748579124</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40">
         <v>13.125</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="4">
+      <c r="A41">
         <v>12</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>78.266524829621247</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41">
         <v>-8.2665248296212468</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41">
         <v>-0.91189757174379682</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41">
         <v>14.375</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="4">
+      <c r="A42">
         <v>13</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>73.092183949274201</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42">
         <v>1.9078160507257991</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42">
         <v>0.21045516221722971</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42">
         <v>15.625</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42">
         <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="4">
+      <c r="A43">
         <v>14</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>78.074192229820383</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43">
         <v>-7.4192229820383204E-2</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43">
         <v>-8.1842994014892454E-3</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43">
         <v>16.875</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43">
         <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="4">
+      <c r="A44">
         <v>15</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>84.975703430581333</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44">
         <v>4.0242965694186665</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44">
         <v>0.44392853650908509</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44">
         <v>18.125</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44">
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="4">
+      <c r="A45">
         <v>16</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>67.987121249550384</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45">
         <v>19.012878750449616</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45">
         <v>2.097350255607787</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45">
         <v>19.375</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="4">
+      <c r="A46">
         <v>17</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>79.946413058122175</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46">
         <v>-0.94641305812217524</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46">
         <v>-0.10440079566152766</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46">
         <v>20.625</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="4">
+      <c r="A47">
         <v>18</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>84.97124884535458</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47">
         <v>2.8751154645419774E-2</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47">
         <v>3.1715997527814758E-3</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47">
         <v>21.875</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47">
         <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="4">
+      <c r="A48">
         <v>19</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>64.404589653479491</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48">
         <v>-7.4045896534794906</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48">
         <v>-0.81681570719682473</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48">
         <v>23.125</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48">
         <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="4">
+      <c r="A49">
         <v>20</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>73.50176959975829</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49">
         <v>7.4982304002417095</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49">
         <v>0.82714541301017508</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49">
         <v>24.375</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49">
         <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="4">
+      <c r="A50">
         <v>21</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>72.217284202210521</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50">
         <v>3.7827157977894785</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50">
         <v>0.41727925841833718</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50">
         <v>25.625</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50">
         <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="4">
+      <c r="A51">
         <v>22</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>76.068593748831745</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51">
         <v>11.931406251168255</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51">
         <v>1.3161782746895345</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51">
         <v>26.875</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="4">
+      <c r="A52">
         <v>23</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>80.281228682807637</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52">
         <v>2.7187713171923633</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52">
         <v>0.29991332674530818</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52">
         <v>28.125</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52">
         <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="4">
+      <c r="A53">
         <v>24</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>86.003661815746796</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53">
         <v>10.996338184253204</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53">
         <v>1.2130289686377835</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53">
         <v>29.375</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53">
         <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="4">
+      <c r="A54">
         <v>25</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>71.762151246129136</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54">
         <v>-11.762151246129136</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54">
         <v>-1.2975074025538091</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54">
         <v>30.625</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="4">
+      <c r="A55">
         <v>26</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>82.589647078792112</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55">
         <v>1.4103529212078882</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55">
         <v>0.15557896826763296</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55">
         <v>31.875</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="4">
+      <c r="A56">
         <v>27</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>78.36750626181545</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56">
         <v>8.6324937381845501</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56">
         <v>0.95226836429942685</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56">
         <v>33.125</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56">
         <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="4">
+      <c r="A57">
         <v>28</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57">
         <v>94.349140761163156</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57">
         <v>0.65085923883684416</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57">
         <v>7.1797638267001695E-2</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57">
         <v>34.375</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57">
         <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="4">
+      <c r="A58">
         <v>29</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>74.967451993088304</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58">
         <v>-10.967451993088304</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58">
         <v>-1.2098424727252794</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58">
         <v>35.625</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58">
         <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="4">
+      <c r="A59">
         <v>30</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59">
         <v>74.005324062230713</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59">
         <v>5.9946759377692871</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59">
         <v>0.66128518860243302</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59">
         <v>36.875</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59">
         <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="4">
+      <c r="A60">
         <v>31</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>85.775875324340589</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60">
         <v>7.2241246756594109</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60">
         <v>0.79690823961513368</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60">
         <v>38.125</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60">
         <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="4">
+      <c r="A61">
         <v>32</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61">
         <v>85.501675966250431</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61">
         <v>5.4983240337495687</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61">
         <v>0.60653157625203868</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61">
         <v>39.375</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61">
         <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="4">
+      <c r="A62">
         <v>33</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>91.315422651747426</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62">
         <v>4.6845773482525743</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62">
         <v>0.51676548447665449</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62">
         <v>40.625</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62">
         <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="4">
+      <c r="A63">
         <v>34</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63">
         <v>89.621851612481805</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63">
         <v>-4.6218516124818052</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63">
         <v>-0.509846077916567</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63">
         <v>41.875</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63">
         <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="4">
+      <c r="A64">
         <v>35</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>76.88792629306154</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64">
         <v>17.11207370693846</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64">
         <v>1.8876684921991598</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64">
         <v>43.125</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64">
         <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="4">
+      <c r="A65">
         <v>36</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65">
         <v>85.818397260741605</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65">
         <v>-15.818397260741605</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65">
         <v>-1.744960348907572</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65">
         <v>44.375</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65">
         <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="4">
+      <c r="A66">
         <v>37</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>89.335362553669583</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66">
         <v>-9.335362553669583</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66">
         <v>-1.0298032872937375</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66">
         <v>45.625</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66">
         <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="4">
+      <c r="A67">
         <v>38</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67">
         <v>76.583610859291397</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67">
         <v>-16.583610859291397</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67">
         <v>-1.8293726547755094</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67">
         <v>46.875</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67">
         <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="4">
+      <c r="A68">
         <v>39</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68">
         <v>73.157131172883467</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68">
         <v>-8.1571311728834672</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68">
         <v>-0.89983012962036635</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68">
         <v>48.125</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68">
         <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="4">
+      <c r="A69">
         <v>40</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69">
         <v>84.018328441224142</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69">
         <v>-2.018328441224142</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69">
         <v>-0.2226460141919232</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69">
         <v>49.375</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69">
         <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="4">
+      <c r="A70">
         <v>41</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70">
         <v>76.858369314880008</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70">
         <v>-11.858369314880008</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70">
         <v>-1.3081214181238583</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70">
         <v>50.625</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70">
         <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="4">
+      <c r="A71">
         <v>42</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71">
         <v>79.783615962819425</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71">
         <v>-14.783615962819425</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71">
         <v>-1.6308114686574458</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71">
         <v>51.875</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71">
         <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="4">
+      <c r="A72">
         <v>43</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72">
         <v>67.214127584499764</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72">
         <v>16.785872415500236</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72">
         <v>1.8516845483178908</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72">
         <v>53.125</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72">
         <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="4">
+      <c r="A73">
         <v>44</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73">
         <v>74.947711025638171</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73">
         <v>-4.9477110256381707</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73">
         <v>-0.54579230849248883</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73">
         <v>54.375</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73">
         <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="4">
+      <c r="A74">
         <v>45</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74">
         <v>77.917816186957268</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74">
         <v>-12.917816186957268</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74">
         <v>-1.4249912092332959</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74">
         <v>55.625</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74">
         <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="4">
+      <c r="A75">
         <v>46</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75">
         <v>85.796443344525571</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75">
         <v>-7.7964433445255708</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75">
         <v>-0.86004190402180136</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75">
         <v>56.875</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="4">
+      <c r="A76">
         <v>47</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>80.957779845879188</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76">
         <v>-10.957779845879188</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76">
         <v>-1.2087755180211774</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76">
         <v>58.125</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="4">
+      <c r="A77">
         <v>48</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77">
         <v>79.59541090427669</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77">
         <v>2.4045890957233098</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77">
         <v>0.26525523150605052</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77">
         <v>59.375</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77">
         <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="4">
+      <c r="A78">
         <v>49</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78">
         <v>84.444709998175455</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78">
         <v>4.5552900018245452</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78">
         <v>0.50250352800826503</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78">
         <v>60.625</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78">
         <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="4">
+      <c r="A79">
         <v>50</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79">
         <v>76.725825928939614</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79">
         <v>-4.7258259289396136</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79">
         <v>-0.5213157013261347</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79">
         <v>61.875</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79">
         <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="4">
+      <c r="A80">
         <v>51</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80">
         <v>86.189647604815022</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80">
         <v>3.810352395184978</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80">
         <v>0.42032790903944361</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80">
         <v>63.125</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80">
         <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="4">
+      <c r="A81">
         <v>52</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81">
         <v>68.892824101248408</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81">
         <v>11.107175898751592</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81">
         <v>1.2252557077805173</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81">
         <v>64.375</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81">
         <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="4">
+      <c r="A82">
         <v>53</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82">
         <v>90.706509823501221</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82">
         <v>8.2934901764987785</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82">
         <v>0.91487217532216381</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82">
         <v>65.625</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82">
         <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="4">
+      <c r="A83">
         <v>54</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83">
         <v>83.170191729840639</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83">
         <v>-0.17019172984063857</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83">
         <v>-1.8774204199621981E-2</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83">
         <v>66.875</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83">
         <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="4">
+      <c r="A84">
         <v>55</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84">
         <v>84.135222549186949</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84">
         <v>4.864777450813051</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84">
         <v>0.53664373311676783</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84">
         <v>68.125</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84">
         <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="4">
+      <c r="A85">
         <v>56</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85">
         <v>84.712502563497779</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85">
         <v>-9.7125025634977789</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85">
         <v>-1.0714063872974329</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85">
         <v>69.375</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85">
         <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="4">
+      <c r="A86">
         <v>57</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86">
         <v>91.885063752307175</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86">
         <v>0.11493624769282462</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86">
         <v>1.2678856875971242E-2</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86">
         <v>70.625</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86">
         <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="4">
+      <c r="A87">
         <v>58</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87">
         <v>68.720798780407705</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87">
         <v>1.279201219592295</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87">
         <v>0.14111135089536334</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87">
         <v>71.875</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87">
         <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="4">
+      <c r="A88">
         <v>59</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88">
         <v>85.376039381844066</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88">
         <v>9.6239606181559338</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88">
         <v>1.0616391408887145</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88">
         <v>73.125</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88">
         <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="4">
+      <c r="A89">
         <v>60</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89">
         <v>78.933006708950458</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89">
         <v>-8.9330067089504581</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89">
         <v>-0.98541857602285821</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89">
         <v>74.375</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89">
         <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="4">
+      <c r="A90">
         <v>61</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90">
         <v>64.299319436765529</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90">
         <v>-4.2993194367655292</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90">
         <v>-0.47426688183274041</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90">
         <v>75.625</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90">
         <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="4">
+      <c r="A91">
         <v>62</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91">
         <v>90.63794228141164</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91">
         <v>1.3620577185883604</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91">
         <v>0.15025142387584528</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91">
         <v>76.875</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="4">
+      <c r="A92">
         <v>63</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92">
         <v>75.685444766815081</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92">
         <v>15.314555233184919</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92">
         <v>1.6893804854291405</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92">
         <v>78.125</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="4">
+      <c r="A93">
         <v>64</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93">
         <v>80.762234229859018</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93">
         <v>-5.7622342298590183</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93">
         <v>-0.63564405966565984</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93">
         <v>79.375</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="4">
+      <c r="A94">
         <v>65</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94">
         <v>71.27137186084056</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94">
         <v>-11.27137186084056</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94">
         <v>-1.2433685063512714</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94">
         <v>80.625</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94">
         <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="4">
+      <c r="A95">
         <v>66</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95">
         <v>84.060850377625158</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95">
         <v>-6.0608503776251581</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95">
         <v>-0.66858502889322169</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95">
         <v>81.875</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95">
         <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="4">
+      <c r="A96">
         <v>67</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96">
         <v>92.586435868297897</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96">
         <v>1.4135641317021026</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96">
         <v>0.15593320358566398</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96">
         <v>83.125</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96">
         <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="4">
+      <c r="A97">
         <v>68</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97">
         <v>70.246109144336572</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97">
         <v>-3.2461091443365717</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97">
         <v>-0.35808506081405911</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97">
         <v>84.375</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97">
         <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="4">
+      <c r="A98">
         <v>69</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98">
         <v>81.389646456547922</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98">
         <v>-3.3896464565479221</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98">
         <v>-0.37391896068830155</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98">
         <v>85.625</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98">
         <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="4">
+      <c r="A99">
         <v>70</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99">
         <v>82.618595572969411</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99">
         <v>7.3814044270305885</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99">
         <v>0.81425809657629844</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99">
         <v>86.875</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99">
         <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="4">
+      <c r="A100">
         <v>71</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100">
         <v>83.686560032050991</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100">
         <v>-5.6865600320509913</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100">
         <v>-0.62729628128876225</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100">
         <v>88.125</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100">
         <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="4">
+      <c r="A101">
         <v>72</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101">
         <v>72.460417057875318</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101">
         <v>6.5395829421246816</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101">
         <v>0.72139501520300675</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101">
         <v>89.375</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101">
         <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="4">
+      <c r="A102">
         <v>73</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102">
         <v>77.877507199322153</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102">
         <v>-2.877507199322153</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102">
         <v>-0.31742381252333218</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102">
         <v>90.625</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102">
         <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="4">
+      <c r="A103">
         <v>74</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103">
         <v>86.522460487948422</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103">
         <v>-11.522460487948422</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103">
         <v>-1.2710666157831443</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103">
         <v>91.875</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103">
         <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="4">
+      <c r="A104">
         <v>75</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104">
         <v>80.585761537803151</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104">
         <v>0.4142384621968489</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104">
         <v>4.5695507554351401E-2</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104">
         <v>93.125</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104">
         <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="4">
+      <c r="A105">
         <v>76</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105">
         <v>83.423359164967422</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105">
         <v>1.5766408350325776</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105">
         <v>0.1739225343915399</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105">
         <v>94.375</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105">
         <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="4">
+      <c r="A106">
         <v>77</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106">
         <v>73.420332039967036</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106">
         <v>1.5796679600329639</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106">
         <v>0.17425646285532748</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106">
         <v>95.625</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106">
         <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="4">
+      <c r="A107">
         <v>78</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107">
         <v>91.367833693081622</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107">
         <v>-3.3678336930816215</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107">
         <v>-0.37151274931799677</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107">
         <v>96.875</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G107">
         <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="4">
+      <c r="A108">
         <v>79</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108">
         <v>84.969398792342901</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108">
         <v>10.030601207657099</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108">
         <v>1.1064965112809071</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108">
         <v>98.125</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G108">
         <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" thickBot="1">
-      <c r="A109" s="5">
+      <c r="A109" s="4">
         <v>80</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="4">
         <v>80.83417603142955</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="4">
         <v>4.1658239685704501</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="4">
         <v>0.45954071868741403</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F109" s="4">
         <v>99.375</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="4">
         <v>99</v>
       </c>
     </row>
@@ -25693,35 +25568,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>75.212868657708157</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>75.212868657708157</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F2">
@@ -25730,17 +25604,16 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>77.050462647139483</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>77.050462647139483</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F3">
@@ -25749,28 +25622,26 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>92.07306539509409</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>92.07306539509409</v>
       </c>
-      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>84.200169772796201</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>84.200169772796201</v>
       </c>
-      <c r="D5" s="4"/>
       <c r="E5" t="s">
         <v>42</v>
       </c>
@@ -25779,95 +25650,88 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>82.012729960235504</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>82.012729960235504</v>
       </c>
-      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>86.854228897121573</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>86.854228897121573</v>
       </c>
-      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>83.255098489630655</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>83.255098489630655</v>
       </c>
-      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>75.429550839435976</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>75.429550839435976</v>
       </c>
-      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>76.123724961709613</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>76.123724961709613</v>
       </c>
-      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>80.981707443319692</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>80.981707443319692</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>69.289700977292441</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>69.289700977292441</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>50</v>
       </c>
       <c r="F12">
@@ -25876,17 +25740,16 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>78.266524829621247</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>78.266524829621247</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>75</v>
       </c>
       <c r="F13">
@@ -25894,16 +25757,15 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>73.092183949274201</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>73.092183949274201</v>
       </c>
-      <c r="D14" s="4"/>
       <c r="E14">
         <v>85</v>
       </c>
@@ -25912,17 +25774,16 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>78.074192229820383</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>78.074192229820383</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>100</v>
       </c>
       <c r="F15">
@@ -25930,796 +25791,730 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>84.975703430581333</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>84.975703430581333</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>67.987121249550384</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>67.987121249550384</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>79.946413058122175</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>79.946413058122175</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>84.97124884535458</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>84.97124884535458</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>64.404589653479491</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>64.404589653479491</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>73.50176959975829</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>73.50176959975829</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>72.217284202210521</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>72.217284202210521</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>76.068593748831745</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>76.068593748831745</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>80.281228682807637</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>80.281228682807637</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>86.003661815746796</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>86.003661815746796</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>71.762151246129136</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26">
         <v>71.762151246129136</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>82.589647078792112</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27">
         <v>82.589647078792112</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>78.36750626181545</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28">
         <v>78.36750626181545</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>94.349140761163156</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29">
         <v>94.349140761163156</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>74.967451993088304</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30">
         <v>74.967451993088304</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>74.005324062230713</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31">
         <v>74.005324062230713</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>85.775875324340589</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32">
         <v>85.775875324340589</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>85.501675966250431</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33">
         <v>85.501675966250431</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>91.315422651747426</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34">
         <v>91.315422651747426</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>89.621851612481805</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35">
         <v>89.621851612481805</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>76.88792629306154</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36">
         <v>76.88792629306154</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="4">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>85.818397260741605</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37">
         <v>85.818397260741605</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="4">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>89.335362553669583</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38">
         <v>89.335362553669583</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>76.583610859291397</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39">
         <v>76.583610859291397</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>73.157131172883467</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40">
         <v>73.157131172883467</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>84.018328441224142</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41">
         <v>84.018328441224142</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>76.858369314880008</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42">
         <v>76.858369314880008</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>79.783615962819425</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43">
         <v>79.783615962819425</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>67.214127584499764</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44">
         <v>67.214127584499764</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>74.947711025638171</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45">
         <v>74.947711025638171</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>77.917816186957268</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46">
         <v>77.917816186957268</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4">
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>85.796443344525571</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47">
         <v>85.796443344525571</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="4">
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>80.957779845879188</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48">
         <v>80.957779845879188</v>
       </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="4">
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>79.59541090427669</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49">
         <v>79.59541090427669</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="4">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>84.444709998175455</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50">
         <v>84.444709998175455</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4">
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>76.725825928939614</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51">
         <v>76.725825928939614</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="4">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>86.189647604815022</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52">
         <v>86.189647604815022</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="4">
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>68.892824101248408</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53">
         <v>68.892824101248408</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="4">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>90.706509823501221</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54">
         <v>90.706509823501221</v>
       </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="4">
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>83.170191729840639</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55">
         <v>83.170191729840639</v>
       </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="4">
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>84.135222549186949</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56">
         <v>84.135222549186949</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="4">
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57">
         <v>84.712502563497779</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57">
         <v>84.712502563497779</v>
       </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="4">
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>91.885063752307175</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58">
         <v>91.885063752307175</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="4">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59">
         <v>68.720798780407705</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59">
         <v>68.720798780407705</v>
       </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="4">
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>85.376039381844066</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60">
         <v>85.376039381844066</v>
       </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="4">
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61">
         <v>78.933006708950458</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61">
         <v>78.933006708950458</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="4">
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>64.299319436765529</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62">
         <v>64.299319436765529</v>
       </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="4">
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63">
         <v>90.63794228141164</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63">
         <v>90.63794228141164</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="4">
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>75.685444766815081</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64">
         <v>75.685444766815081</v>
       </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="4">
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65">
         <v>80.762234229859018</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65">
         <v>80.762234229859018</v>
       </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="4">
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>71.27137186084056</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66">
         <v>71.27137186084056</v>
       </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="4">
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67">
         <v>84.060850377625158</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67">
         <v>84.060850377625158</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="4">
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68">
         <v>92.586435868297897</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68">
         <v>92.586435868297897</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="4">
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69">
         <v>70.246109144336572</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69">
         <v>70.246109144336572</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="4">
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70">
         <v>81.389646456547922</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70">
         <v>81.389646456547922</v>
       </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="4">
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71">
         <v>82.618595572969411</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71">
         <v>82.618595572969411</v>
       </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="4">
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72">
         <v>83.686560032050991</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72">
         <v>83.686560032050991</v>
       </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="4">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73">
         <v>72.460417057875318</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73">
         <v>72.460417057875318</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="4">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74">
         <v>77.877507199322153</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74">
         <v>77.877507199322153</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="4">
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75">
         <v>86.522460487948422</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75">
         <v>86.522460487948422</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="4">
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>80.585761537803151</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76">
         <v>80.585761537803151</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="4">
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77">
         <v>83.423359164967422</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77">
         <v>83.423359164967422</v>
       </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="4">
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78">
         <v>73.420332039967036</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78">
         <v>73.420332039967036</v>
       </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="4">
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79">
         <v>91.367833693081622</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79">
         <v>91.367833693081622</v>
       </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="4">
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80">
         <v>84.969398792342901</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80">
         <v>84.969398792342901</v>
       </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1">
-      <c r="A81" s="5">
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="4">
         <v>80.83417603142955</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>80.83417603142955</v>
       </c>
-      <c r="D81" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B81">
@@ -26754,37 +26549,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC14CF46-9231-41B4-A0BC-74DE0CFA9BFD}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T9" zoomScale="171" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="S59" zoomScale="87" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T73" sqref="T73:AC78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="41.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>44</v>
       </c>
       <c r="J1" t="s">
@@ -26792,270 +26595,270 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>25</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>75</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>10</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>10</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>7.5</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>0</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>20</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>60</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>7.5</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>10</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>2.5</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>1</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>10</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>40</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>70</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>7.5</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>10</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>5</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>0</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4">
         <v>0.88162127632411647</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>30</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>75</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>15</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>12.5</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>5</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>15</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5">
         <v>0.77725607486736414</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>50</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>75</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>10</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>12.5</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>0</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>15</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6">
         <v>0.71914896396319816</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>50</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>70</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>10</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>12.5</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>7.5</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>1</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>20</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7">
         <v>2.1931660935126938</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>50</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>70</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>7.5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>10</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>0</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>15</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>40</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>60</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>12.5</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>15</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>5</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>0</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15" thickBot="1">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>10</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>40</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>10</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>12.5</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>5</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>0</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <v>20</v>
       </c>
       <c r="J10" t="s">
@@ -27063,718 +26866,716 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>30</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>60</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>10</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>12.5</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>0</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <v>10</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6" t="s">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>20</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>60</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>12.5</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>12.5</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>7.5</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>1</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>15</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12">
         <v>6</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12">
         <v>386.03718385079077</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12">
         <v>64.339530641798461</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12">
         <v>13.376264329322218</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12">
         <v>1.6864905232023787E-6</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>30</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>75</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>12.5</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>10</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>2.5</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>0</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>10</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13">
         <v>23</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13">
         <v>110.6294828158758</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13">
         <v>4.8099775137337302</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>50</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>75</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>7.5</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>10</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>5</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>0</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <v>15</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>29</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>496.66666666666657</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>20</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>75</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>7.5</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>12.5</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>2.5</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>0</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>10</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>50</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>7.5</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>10</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>2.5</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>0</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <v>10</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6" t="s">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>30</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>60</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>15</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>12.5</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>2.5</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="18">
         <v>20</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17">
         <v>6.1548575557203433</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17">
         <v>3.7119013460689643</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17">
         <v>1.6581414703379864</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17">
         <v>0.11086684453932982</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17">
         <v>-1.5237954129499318</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17">
         <v>13.833510524390618</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17">
         <v>-1.5237954129499318</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17">
         <v>13.833510524390618</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>30</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>50</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>7.5</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>12.5</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>5</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>1</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <v>15</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18">
         <v>0.1889194654246904</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18">
         <v>3.7302335415322865E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18">
         <v>5.0645479249829224</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18">
         <v>3.9750796325105165E-5</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18">
         <v>0.11175370538137874</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18">
         <v>0.26608522546800206</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18">
         <v>0.11175370538137874</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18">
         <v>0.26608522546800206</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>40</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>70</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>7.5</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>12.5</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>5</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>0</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="18">
         <v>20</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19">
         <v>-0.15603115843053206</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19">
         <v>4.1419398520554436E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19">
         <v>-3.767103434713118</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19">
         <v>1.0012918836072961E-3</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19">
         <v>-0.24171371239905648</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19">
         <v>-7.0348604462007622E-2</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19">
         <v>-0.24171371239905648</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19">
         <v>-7.0348604462007622E-2</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>10</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>60</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>12.5</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>10</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>2.5</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>0</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <v>10</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20">
         <v>0.3371639232948026</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20">
         <v>0.14670886432871527</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20">
         <v>2.2981837180564257</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20">
         <v>3.0979467045926436E-2</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20">
         <v>3.3673514585270015E-2</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20">
         <v>0.64065433200433519</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20">
         <v>3.3673514585270015E-2</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20">
         <v>0.64065433200433519</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>20</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>70</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>5</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>12.5</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>7.5</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="18">
         <v>15</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21">
         <v>0.61866177212491924</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21">
         <v>0.27622069001664701</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21">
         <v>2.2397372625766532</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21">
         <v>3.506742942553949E-2</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21">
         <v>4.7255739566781307E-2</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21">
         <v>1.1900678046830571</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21">
         <v>4.7255739566781307E-2</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21">
         <v>1.1900678046830571</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>40</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>7.5</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>10</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>7.5</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>0</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="18">
         <v>20</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22">
         <v>0.8535400818083213</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22">
         <v>0.17751140035134025</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22">
         <v>4.8083676886044966</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22">
         <v>7.5071775410801689E-5</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22">
         <v>0.48632977253537862</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22">
         <v>1.220750391081264</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22">
         <v>0.48632977253537862</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22">
         <v>1.220750391081264</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>50</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>15</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>10</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>5</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>1</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <v>15</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>-2.4604629270588987</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>1.0099918521215459</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <v>-2.4361215606745295</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <v>2.3003093821592754E-2</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="4">
         <v>-4.549790258411365</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="4">
         <v>-0.37113559570643195</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="4">
         <v>-4.549790258411365</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="4">
         <v>-0.37113559570643195</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>40</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>40</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>7.5</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>12.5</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>5</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>1</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="18">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>30</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>50</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>5</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>7.5</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>0</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>0</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>40</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>70</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>15</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>12.5</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>5</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <v>0</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="18">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>40</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>70</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>12.5</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>10</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>5</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <v>1</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="18">
         <v>15</v>
       </c>
       <c r="J27" t="s">
@@ -27785,741 +27586,990 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" thickBot="1">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>20</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>75</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>7.5</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>10.5</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>2.5</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <v>0</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>10</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>60</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>12.5</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>12.5</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>5</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <v>0</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="18">
         <v>15</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P29" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>30</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>75</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>5</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>7.5</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>2.5</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <v>0</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="18">
         <v>10</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30">
         <v>1</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30">
         <v>15.135314876807328</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30">
         <v>-0.13531487680732823</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30">
         <v>-6.928019547608999E-2</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30">
         <v>1.6666666666666667</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15" thickBot="1">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>20</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>75</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>12.5</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>12.5</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <v>0</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <v>0</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="19">
         <v>10</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31">
         <v>2</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31">
         <v>8.9601117818043452</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31">
         <v>1.0398882181956548</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31">
         <v>0.5324149179284936</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31">
         <v>5</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="J32" s="4">
+      <c r="J32">
         <v>3</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32">
         <v>15.772502637572533</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32">
         <v>-0.77250263757253279</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32">
         <v>-0.3955155190587421</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32">
         <v>8.3333333333333339</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:16">
-      <c r="J33" s="4">
+      <c r="J33">
         <v>4</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33">
         <v>17.178536046196285</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33">
         <v>-2.1785360461962853</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33">
         <v>-1.1153940105720361</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33">
         <v>11.666666666666666</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:16">
-      <c r="J34" s="4">
+      <c r="J34">
         <v>5</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34">
         <v>15.003405329174475</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34">
         <v>-3.4053291744751135E-3</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34">
         <v>-1.7435028315769875E-3</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34">
         <v>15</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="10:16">
-      <c r="J35" s="4">
+      <c r="J35">
         <v>6</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35">
         <v>19.724648807830647</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35">
         <v>0.275351192169353</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35">
         <v>0.14097773185153634</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35">
         <v>18.333333333333336</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="10:16">
-      <c r="J36" s="4">
+      <c r="J36">
         <v>7</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36">
         <v>10.933533955718932</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36">
         <v>4.0664660442810678</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36">
         <v>2.0819999182042443</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36">
         <v>21.666666666666668</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="10:16">
-      <c r="J37" s="4">
+      <c r="J37">
         <v>8</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37">
         <v>22.11194269897646</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37">
         <v>2.8880573010235402</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37">
         <v>1.47866353709176</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37">
         <v>25.000000000000004</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="10:16">
-      <c r="J38" s="4">
+      <c r="J38">
         <v>9</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38">
         <v>17.17541766629709</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38">
         <v>2.8245823337029101</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38">
         <v>1.4461648329760755</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38">
         <v>28.333333333333336</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:16">
-      <c r="J39" s="4">
+      <c r="J39">
         <v>10</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39">
         <v>13.565483397138649</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39">
         <v>-3.5654833971386495</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39">
         <v>-1.8255005846270802</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39">
         <v>31.666666666666668</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="10:16">
-      <c r="J40" s="4">
+      <c r="J40">
         <v>11</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40">
         <v>16.460286237632264</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40">
         <v>-1.4602862376322641</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40">
         <v>-0.74765553042818311</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40">
         <v>35</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="10:16">
-      <c r="J41" s="4">
+      <c r="J41">
         <v>12</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41">
         <v>12.655121603126178</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41">
         <v>-2.6551216031261777</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41">
         <v>-1.3594022181263146</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41">
         <v>38.333333333333336</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="10:16">
-      <c r="J42" s="4">
+      <c r="J42">
         <v>13</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42">
         <v>16.881541499666774</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42">
         <v>-1.8815414996667741</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42">
         <v>-0.96333504466694431</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42">
         <v>41.666666666666664</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="10:16">
-      <c r="J43" s="4">
+      <c r="J43">
         <v>14</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43">
         <v>10.62676176271756</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43">
         <v>-0.62676176271756034</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43">
         <v>-0.32089729128482419</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43">
         <v>45</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="10:16">
-      <c r="J44" s="4">
+      <c r="J44">
         <v>15</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44">
         <v>11.091691638921658</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44">
         <v>-1.0916916389216578</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44">
         <v>-0.5589378782925476</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44">
         <v>48.333333333333336</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="10:16">
-      <c r="J45" s="4">
+      <c r="J45">
         <v>16</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45">
         <v>17.385153218133468</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45">
         <v>2.6148467818665324</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45">
         <v>1.3387818136632801</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45">
         <v>51.666666666666664</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="10:16">
-      <c r="J46" s="4">
+      <c r="J46">
         <v>17</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46">
         <v>16.090122655189671</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46">
         <v>-1.0901226551896706</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46">
         <v>-0.55813457046553272</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46">
         <v>55</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="10:16">
-      <c r="J47" s="4">
+      <c r="J47">
         <v>18</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47">
         <v>17.319157067884831</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47">
         <v>2.6808429321151692</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47">
         <v>1.3725713444064904</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47">
         <v>58.333333333333336</v>
       </c>
-      <c r="P47" s="4">
+      <c r="P47">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="10:16">
-      <c r="J48" s="4">
+      <c r="J48">
         <v>19</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48">
         <v>11.217199671090352</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48">
         <v>-1.2171996710903521</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48">
         <v>-0.62319704334242942</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48">
         <v>61.666666666666664</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="10:16">
-      <c r="J49" s="4">
+    <row r="49" spans="10:17">
+      <c r="J49">
         <v>20</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49">
         <v>14.831708155674821</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49">
         <v>0.16829184432517863</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49">
         <v>8.616415391251829E-2</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49">
         <v>65</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P49">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="10:16">
-      <c r="J50" s="4">
+    <row r="50" spans="10:17">
+      <c r="J50">
         <v>21</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50">
         <v>18.80889828651549</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50">
         <v>1.1911017134845103</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50">
         <v>0.60983508605347658</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50">
         <v>68.333333333333343</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="10:16">
-      <c r="J51" s="4">
+    <row r="51" spans="10:17">
+      <c r="J51">
         <v>22</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51">
         <v>13.293808341094582</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51">
         <v>1.7061916589054178</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51">
         <v>0.87355724985768868</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O51">
         <v>71.666666666666671</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="10:16">
-      <c r="J52" s="4">
+    <row r="52" spans="10:17">
+      <c r="J52">
         <v>23</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52">
         <v>19.539628893741892</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52">
         <v>-4.5396288937418916</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52">
         <v>-2.3242557253712972</v>
       </c>
-      <c r="O52" s="4">
+      <c r="O52">
         <v>75.000000000000014</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P52">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="10:16">
-      <c r="J53" s="4">
+    <row r="53" spans="10:17">
+      <c r="J53">
         <v>24</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53">
         <v>10.346666504345359</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53">
         <v>-0.34666650434535917</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53">
         <v>-0.17749063334888679</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53">
         <v>78.333333333333343</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="10:16">
-      <c r="J54" s="4">
+    <row r="54" spans="10:17">
+      <c r="J54">
         <v>25</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54">
         <v>19.847886492595851</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54">
         <v>0.15211350740414886</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M54">
         <v>7.7880967534106088E-2</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O54">
         <v>81.666666666666671</v>
       </c>
-      <c r="P54" s="4">
+      <c r="P54">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="10:16">
-      <c r="J55" s="4">
+    <row r="55" spans="10:17">
+      <c r="J55">
         <v>26</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55">
         <v>14.997859326987648</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55">
         <v>2.1406730123523232E-3</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55">
         <v>1.0960084230600101E-3</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55">
         <v>85.000000000000014</v>
       </c>
-      <c r="P55" s="4">
+      <c r="P55">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="10:16">
-      <c r="J56" s="4">
+    <row r="56" spans="10:17">
+      <c r="J56">
         <v>27</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56">
         <v>9.3894382184677223</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56">
         <v>0.61056178153227769</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M56">
         <v>0.31260302320650024</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56">
         <v>88.333333333333343</v>
       </c>
-      <c r="P56" s="4">
+      <c r="P56">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="10:16">
-      <c r="J57" s="4">
+    <row r="57" spans="10:17">
+      <c r="J57">
         <v>28</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57">
         <v>14.897704305923455</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57">
         <v>0.10229569407654537</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57">
         <v>5.2374623169309575E-2</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57">
         <v>91.666666666666671</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="10:16">
-      <c r="J58" s="4">
+    <row r="58" spans="10:17">
+      <c r="J58">
         <v>29</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58">
         <v>8.5797377481028612</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58">
         <v>1.4202622518971388</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M58">
         <v>0.72716355186022463</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O58">
         <v>95.000000000000014</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P58">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="10:16" ht="15" thickBot="1">
-      <c r="J59" s="5">
+    <row r="59" spans="10:17" ht="15" thickBot="1">
+      <c r="J59" s="4">
         <v>30</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="4">
         <v>10.178731174670769</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="4">
         <v>-0.17873117467076938</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="4">
         <v>-9.1509012246253518E-2</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O59" s="4">
         <v>98.333333333333343</v>
       </c>
-      <c r="P59" s="5">
+      <c r="P59" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="10:16" ht="15" thickBot="1">
-      <c r="J60" s="5">
+    <row r="60" spans="10:17" ht="15" thickBot="1">
+      <c r="J60" s="4">
         <v>30</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="4">
         <v>10.159048023749747</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="4">
         <v>-0.15904802374974736</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="4">
         <v>-8.1433048261700031E-2</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O60" s="4">
         <v>98.333333333333343</v>
       </c>
-      <c r="P60" s="5">
+      <c r="P60" s="4">
         <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17" ht="15" thickBot="1"/>
+    <row r="64" spans="10:17">
+      <c r="J64" s="23"/>
+      <c r="K64" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M64" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N64" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="O64" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="P64" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q64" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="10:29">
+      <c r="J65" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65" s="21">
+        <v>1</v>
+      </c>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+    </row>
+    <row r="66" spans="10:29">
+      <c r="J66" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K66" s="21">
+        <v>0.38610380674313577</v>
+      </c>
+      <c r="L66" s="21">
+        <v>1</v>
+      </c>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+    </row>
+    <row r="67" spans="10:29">
+      <c r="J67" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K67" s="21">
+        <v>-0.11056930262075874</v>
+      </c>
+      <c r="L67" s="21">
+        <v>7.5108817912408435E-2</v>
+      </c>
+      <c r="M67" s="21">
+        <v>1</v>
+      </c>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+    </row>
+    <row r="68" spans="10:29">
+      <c r="J68" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K68" s="21">
+        <v>0.1008195136571336</v>
+      </c>
+      <c r="L68" s="21">
+        <v>-2.263271590582085E-2</v>
+      </c>
+      <c r="M68" s="21">
+        <v>0.39674526426911833</v>
+      </c>
+      <c r="N68" s="21">
+        <v>1</v>
+      </c>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+    </row>
+    <row r="69" spans="10:29">
+      <c r="J69" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K69" s="21">
+        <v>-5.5160466583277813E-2</v>
+      </c>
+      <c r="L69" s="21">
+        <v>-0.15041245021644598</v>
+      </c>
+      <c r="M69" s="21">
+        <v>8.8439658736349319E-2</v>
+      </c>
+      <c r="N69" s="21">
+        <v>0.22959766845531043</v>
+      </c>
+      <c r="O69" s="21">
+        <v>1</v>
+      </c>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+    </row>
+    <row r="70" spans="10:29">
+      <c r="J70" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K70" s="21">
+        <v>0.17328879158560659</v>
+      </c>
+      <c r="L70" s="21">
+        <v>-0.24938907724170739</v>
+      </c>
+      <c r="M70" s="21">
+        <v>3.2512804438117715E-2</v>
+      </c>
+      <c r="N70" s="21">
+        <v>-6.0290212078700162E-3</v>
+      </c>
+      <c r="O70" s="21">
+        <v>0.19467214189567897</v>
+      </c>
+      <c r="P70" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="21"/>
+    </row>
+    <row r="71" spans="10:29" ht="15" thickBot="1">
+      <c r="J71" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K71" s="22">
+        <v>0.34563962671613946</v>
+      </c>
+      <c r="L71" s="22">
+        <v>-0.20684976378611328</v>
+      </c>
+      <c r="M71" s="22">
+        <v>0.29373066587210367</v>
+      </c>
+      <c r="N71" s="22">
+        <v>0.54140402948310462</v>
+      </c>
+      <c r="O71" s="22">
+        <v>0.56325040593939379</v>
+      </c>
+      <c r="P71" s="22">
+        <v>4.9401543575343924E-2</v>
+      </c>
+      <c r="Q71" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="10:29">
+      <c r="T73" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U73" s="20">
+        <v>6</v>
+      </c>
+      <c r="V73">
+        <v>0.8535400818083213</v>
+      </c>
+    </row>
+    <row r="74" spans="10:29" ht="15" thickBot="1">
+      <c r="T74" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U74" s="20">
+        <v>0</v>
+      </c>
+      <c r="V74" s="4">
+        <v>-2.4604629270588987</v>
+      </c>
+      <c r="X74" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y74">
+        <f>SUMPRODUCT(V73:V78,U73:U78)+K17</f>
+        <v>13.924675846842705</v>
+      </c>
+      <c r="AA74" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB74">
+        <f>Y74-K7*_xlfn.T.INV.2T(0.5,K13)</f>
+        <v>12.421685354127295</v>
+      </c>
+      <c r="AC74">
+        <f>Y74+K7*_xlfn.T.INV.2T(0.5,K13)</f>
+        <v>15.427666339558115</v>
+      </c>
+    </row>
+    <row r="75" spans="10:29">
+      <c r="T75" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U75" s="20">
+        <v>60</v>
+      </c>
+      <c r="V75">
+        <v>-0.15603115843053206</v>
+      </c>
+    </row>
+    <row r="76" spans="10:29">
+      <c r="T76" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="U76" s="20">
+        <v>10</v>
+      </c>
+      <c r="V76">
+        <v>0.1889194654246904</v>
+      </c>
+    </row>
+    <row r="77" spans="10:29">
+      <c r="T77" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="U77" s="20">
+        <v>12</v>
+      </c>
+      <c r="V77">
+        <v>0.61866177212491924</v>
+      </c>
+    </row>
+    <row r="78" spans="10:29">
+      <c r="T78" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U78" s="20">
+        <v>8</v>
+      </c>
+      <c r="V78">
+        <v>0.3371639232948026</v>
       </c>
     </row>
   </sheetData>
